--- a/logs/hypothesis_reinjection_results/experiments_summary.xlsx
+++ b/logs/hypothesis_reinjection_results/experiments_summary.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BW2"/>
+  <dimension ref="A1:BW4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -816,11 +816,11 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>46079.53820601852</v>
+        <v>46080.42462962963</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>02-26_12-55-01_multihead_spsa_compact_f5_w5_h5_effsu2_lin_r1.pkl</t>
+          <t>02-27_10-11-28_multihead_spsa_compact_f5_w5_h5_effsu2_lin_r1.pkl</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -839,9 +839,7 @@
       <c r="F2" t="n">
         <v>16590</v>
       </c>
-      <c r="G2" t="n">
-        <v>4.5</v>
-      </c>
+      <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
           <t>['wv', 'sv', 'yr', 'ya', 'rarad']</t>
@@ -906,10 +904,8 @@
           <t>lin</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="V2" t="n">
+        <v>1</v>
       </c>
       <c r="W2" t="inlineStr">
         <is>
@@ -1077,6 +1073,534 @@
       </c>
       <c r="BW2" t="n">
         <v>-0.0227937036822623</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>46080.42471064815</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>02-27_10-11-35_multihead_spsa_compact_f5_w5_h5_effsu2_lin_r1.pkl</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Final (Last Iteration)</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>data/reduce_row_number_absolutes</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>16590</v>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>['wv', 'sv', 'yr', 'ya', 'rarad']</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>['Surge Velocity', 'Sway Velocity', 'Yaw Rate', 'Yaw Angle']</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>5</v>
+      </c>
+      <c r="K3" t="n">
+        <v>5</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>motion</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>multihead</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>[{'features': ['wv', 'sv', 'yr', 'ya', 'rarad'], 'output_dim': 4, 'reps': 1, 'encoding': 'compact', 'ansatz': 'effsu2', 'entangle': 'lin', 'map': [0, 3, -1, -1, 1, 2, -1, -1, 4]}]</t>
+        </is>
+      </c>
+      <c r="R3" t="n">
+        <v>1</v>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>compact</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>effsu2</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>lin</t>
+        </is>
+      </c>
+      <c r="V3" t="n">
+        <v>1</v>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>[0, 3, -1, -1, 1, 2, -1, -1, 4]</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>spsa</t>
+        </is>
+      </c>
+      <c r="Z3" t="n">
+        <v>4000</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>4000</v>
+      </c>
+      <c r="AB3" t="inlineStr"/>
+      <c r="AC3" t="n">
+        <v>512</v>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>[0.05, 0.001]</t>
+        </is>
+      </c>
+      <c r="AE3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>130</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>120</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0.2490981886446305</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>84.10467590182435</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0.2163757806085022</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0.1461315783607561</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>88.60542069795579</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0.2259635249163294</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>88.60542069795579</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>88.60542069795579</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0.2259635249163294</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>88.25078182496321</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>0.1865614314982028</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AU3" t="inlineStr">
+        <is>
+          <t>identity</t>
+        </is>
+      </c>
+      <c r="AV3" t="n">
+        <v>0.009913785339574736</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>0.9280131003213111</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>0.009913785339574736</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>0.009913785339574736</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>0.9280131003213111</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>0.03272749533296022</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>0.7623560685882648</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>0.2912791764518612</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>-0.009220134413480352</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>0.2912791764518612</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>0.2912791764518612</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>-0.009220134413480352</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>0.2905280578926167</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>-0.006617669031110163</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>0.2510195197284536</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>-0.007763973757498821</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>0.2510195197284536</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>0.2510195197284536</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>-0.007763973757498821</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>0.2506840276618284</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>-0.006417079226778144</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>353.8694703103021</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>-0.007174892485017015</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>353.8694703103021</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>353.8694703103021</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>-0.007174892485017015</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>352.4291877189648</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>-0.003075594337578202</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>46080.42475694444</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>02-27_10-11-39_multihead_spsa_compact_f5_w5_h5_effsu2_lin_r1.pkl</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Final (Last Iteration)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>data/reduce_row_number_absolutes</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>16590</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>['wv', 'sv', 'yr', 'ya', 'rarad']</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>['Surge Velocity', 'Sway Velocity', 'Yaw Rate', 'Yaw Angle']</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>5</v>
+      </c>
+      <c r="K4" t="n">
+        <v>5</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>motion</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>multihead</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>[{'features': ['wv', 'sv', 'yr', 'ya', 'rarad'], 'output_dim': 4, 'reps': 1, 'encoding': 'compact', 'ansatz': 'effsu2', 'entangle': 'lin', 'map': [0, 3, -1, -1, 1, 2, -1, -1, 4]}]</t>
+        </is>
+      </c>
+      <c r="R4" t="n">
+        <v>1</v>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>compact</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>effsu2</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>lin</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>[0, 3, -1, -1, 1, 2, -1, -1, 4]</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>spsa</t>
+        </is>
+      </c>
+      <c r="Z4" t="n">
+        <v>4000</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>4000</v>
+      </c>
+      <c r="AB4" t="inlineStr"/>
+      <c r="AC4" t="n">
+        <v>512</v>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>[0.05, 0.001]</t>
+        </is>
+      </c>
+      <c r="AE4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>130</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>120</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0.2441876383489529</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>83.54110829633231</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0.2137821907008691</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0.005840970070639301</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>88.65857577802076</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0.2216519612053691</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>88.65857577802076</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>88.65857577802076</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0.2216519612053691</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>88.41528093873576</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>0.04437965445861325</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AU4" t="inlineStr">
+        <is>
+          <t>identity</t>
+        </is>
+      </c>
+      <c r="AV4" t="n">
+        <v>0.0123434592748159</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>0.9103705260838066</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>0.0123434592748159</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>0.0123434592748159</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>0.9103705260838066</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>0.1121974318697675</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>0.1853015779982642</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>0.2912355700727387</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>-0.009069047623359028</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>0.2912355700727387</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>0.2912355700727387</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>-0.009069047623359028</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>0.2893964178705139</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>-0.00269677805247559</v>
+      </c>
+      <c r="BJ4" t="n">
+        <v>0.2508092429308092</v>
+      </c>
+      <c r="BK4" t="n">
+        <v>-0.006919778925908115</v>
+      </c>
+      <c r="BL4" t="n">
+        <v>0.2508092429308092</v>
+      </c>
+      <c r="BM4" t="n">
+        <v>0.2508092429308092</v>
+      </c>
+      <c r="BN4" t="n">
+        <v>-0.006919778925908115</v>
+      </c>
+      <c r="BO4" t="n">
+        <v>0.2491744199767414</v>
+      </c>
+      <c r="BP4" t="n">
+        <v>-0.0003564818629404609</v>
+      </c>
+      <c r="BQ4" t="n">
+        <v>354.0799148398054</v>
+      </c>
+      <c r="BR4" t="n">
+        <v>-0.007773854713068795</v>
+      </c>
+      <c r="BS4" t="n">
+        <v>354.0799148398054</v>
+      </c>
+      <c r="BT4" t="n">
+        <v>354.0799148398054</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>-0.007773854713068795</v>
+      </c>
+      <c r="BV4" t="n">
+        <v>353.0103554852262</v>
+      </c>
+      <c r="BW4" t="n">
+        <v>-0.004729700248401025</v>
       </c>
     </row>
   </sheetData>
